--- a/Excel-XLSX/UN-LTU.xlsx
+++ b/Excel-XLSX/UN-LTU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>wqa66I</t>
+    <t>OUjt17</t>
   </si>
   <si>
     <t>1998</t>
@@ -336,813 +336,816 @@
     <t>2023</t>
   </si>
   <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Rep. of Moldova</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
     <t>268</t>
   </si>
   <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>BLR</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>KAZ</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LEB</t>
-  </si>
-  <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>Rep. of Moldova</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
     <t>269</t>
   </si>
   <si>
@@ -1161,9 +1164,6 @@
     <t>274</t>
   </si>
   <si>
-    <t>275</t>
-  </si>
-  <si>
     <t>276</t>
   </si>
   <si>
@@ -1359,7 +1359,7 @@
     <t>323</t>
   </si>
   <si>
-    <t>871</t>
+    <t>895</t>
   </si>
   <si>
     <t>324</t>
@@ -1536,7 +1536,7 @@
     <t>368</t>
   </si>
   <si>
-    <t>494</t>
+    <t>496</t>
   </si>
   <si>
     <t>369</t>
@@ -1665,10 +1665,10 @@
     <t>400</t>
   </si>
   <si>
-    <t>70380</t>
-  </si>
-  <si>
-    <t>3000</t>
+    <t>77340</t>
+  </si>
+  <si>
+    <t>5297</t>
   </si>
   <si>
     <t>401</t>
@@ -1870,6 +1870,9 @@
   </si>
   <si>
     <t>443</t>
+  </si>
+  <si>
+    <t>2331</t>
   </si>
 </sst>
 </file>
@@ -2394,8 +2397,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2462,8 +2465,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2530,8 +2533,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2598,8 +2601,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2666,8 +2669,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -2734,8 +2737,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -2802,8 +2805,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2870,8 +2873,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2938,8 +2941,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -3006,8 +3009,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -3074,8 +3077,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -3142,8 +3145,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -3210,8 +3213,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -3278,8 +3281,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -3346,8 +3349,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -3414,8 +3417,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -3482,8 +3485,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -3550,8 +3553,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3618,8 +3621,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3686,8 +3689,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3754,8 +3757,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3822,8 +3825,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3890,8 +3893,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3958,8 +3961,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -4074,7 +4077,7 @@
         <v>106</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>32</v>
@@ -4298,8 +4301,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4366,8 +4369,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -4434,8 +4437,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -4502,8 +4505,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4570,8 +4573,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -4638,8 +4641,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -4706,8 +4709,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4774,8 +4777,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -4842,8 +4845,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -4910,8 +4913,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5026,7 +5029,7 @@
         <v>53</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>32</v>
@@ -5114,8 +5117,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -5182,8 +5185,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -5250,8 +5253,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -5318,8 +5321,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -5386,8 +5389,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -5454,8 +5457,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -5522,8 +5525,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -5590,8 +5593,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -5658,8 +5661,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -5726,8 +5729,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -5794,8 +5797,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5862,8 +5865,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5930,8 +5933,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5998,8 +6001,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -6066,8 +6069,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -6134,8 +6137,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -6202,8 +6205,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -6270,8 +6273,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -6338,8 +6341,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -6454,7 +6457,7 @@
         <v>115</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>32</v>
@@ -6542,8 +6545,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -6610,8 +6613,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -6678,8 +6681,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6746,8 +6749,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6814,8 +6817,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6882,8 +6885,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6950,8 +6953,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -7018,8 +7021,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -7086,8 +7089,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -7154,8 +7157,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -7222,8 +7225,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -7290,8 +7293,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -7358,8 +7361,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -7426,8 +7429,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -7494,8 +7497,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -7562,8 +7565,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7630,8 +7633,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7746,7 +7749,7 @@
         <v>166</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -7781,7 +7784,7 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>99</v>
@@ -7790,13 +7793,13 @@
         <v>120</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -7834,8 +7837,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7849,7 +7852,7 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>101</v>
@@ -7858,13 +7861,13 @@
         <v>120</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -7902,8 +7905,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7917,7 +7920,7 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>61</v>
@@ -7926,13 +7929,13 @@
         <v>121</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -7970,8 +7973,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7994,13 +7997,13 @@
         <v>121</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -8038,8 +8041,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -8053,7 +8056,7 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>65</v>
@@ -8062,13 +8065,13 @@
         <v>121</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -8106,8 +8109,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -8121,7 +8124,7 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -8130,13 +8133,13 @@
         <v>121</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -8174,8 +8177,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -8189,7 +8192,7 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>71</v>
@@ -8198,13 +8201,13 @@
         <v>121</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -8242,8 +8245,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -8257,7 +8260,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>75</v>
@@ -8266,13 +8269,13 @@
         <v>121</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -8310,8 +8313,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -8334,13 +8337,13 @@
         <v>121</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -8378,8 +8381,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -8393,7 +8396,7 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>81</v>
@@ -8402,13 +8405,13 @@
         <v>121</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -8446,8 +8449,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -8461,7 +8464,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>85</v>
@@ -8470,13 +8473,13 @@
         <v>121</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -8514,8 +8517,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -8529,7 +8532,7 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>87</v>
@@ -8538,13 +8541,13 @@
         <v>121</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -8582,8 +8585,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -8597,7 +8600,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>90</v>
@@ -8606,13 +8609,13 @@
         <v>121</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -8650,8 +8653,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8674,13 +8677,13 @@
         <v>121</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -8718,8 +8721,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8733,7 +8736,7 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>96</v>
@@ -8742,13 +8745,13 @@
         <v>121</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -8786,8 +8789,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8810,13 +8813,13 @@
         <v>121</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -8854,8 +8857,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8878,13 +8881,13 @@
         <v>121</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -8922,8 +8925,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8937,7 +8940,7 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>102</v>
@@ -8946,13 +8949,13 @@
         <v>121</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -9005,7 +9008,7 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>105</v>
@@ -9014,13 +9017,13 @@
         <v>121</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -9038,7 +9041,7 @@
         <v>49</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>32</v>
@@ -9082,13 +9085,13 @@
         <v>83</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -9126,8 +9129,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -9141,7 +9144,7 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>64</v>
@@ -9150,13 +9153,13 @@
         <v>83</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -9194,8 +9197,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -9209,7 +9212,7 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>65</v>
@@ -9218,13 +9221,13 @@
         <v>83</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -9262,8 +9265,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -9277,7 +9280,7 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>68</v>
@@ -9286,13 +9289,13 @@
         <v>83</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -9330,8 +9333,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -9345,7 +9348,7 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>71</v>
@@ -9354,13 +9357,13 @@
         <v>83</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -9398,8 +9401,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -9413,7 +9416,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>75</v>
@@ -9422,13 +9425,13 @@
         <v>83</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -9466,8 +9469,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -9481,7 +9484,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>77</v>
@@ -9490,13 +9493,13 @@
         <v>83</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -9534,8 +9537,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9549,7 +9552,7 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>81</v>
@@ -9558,13 +9561,13 @@
         <v>83</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -9602,8 +9605,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9626,13 +9629,13 @@
         <v>83</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -9670,8 +9673,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9685,7 +9688,7 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>87</v>
@@ -9694,13 +9697,13 @@
         <v>83</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -9738,8 +9741,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9753,7 +9756,7 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>90</v>
@@ -9762,13 +9765,13 @@
         <v>83</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -9806,8 +9809,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9821,7 +9824,7 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>93</v>
@@ -9830,13 +9833,13 @@
         <v>83</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -9874,8 +9877,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9889,7 +9892,7 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>96</v>
@@ -9898,13 +9901,13 @@
         <v>83</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9942,8 +9945,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9966,13 +9969,13 @@
         <v>83</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -10010,8 +10013,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -10034,13 +10037,13 @@
         <v>83</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -10078,8 +10081,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -10093,7 +10096,7 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>102</v>
@@ -10102,13 +10105,13 @@
         <v>83</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -10161,7 +10164,7 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>105</v>
@@ -10170,13 +10173,13 @@
         <v>83</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -10194,7 +10197,7 @@
         <v>53</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>32</v>
@@ -10229,7 +10232,7 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>61</v>
@@ -10238,13 +10241,13 @@
         <v>138</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -10282,8 +10285,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -10297,7 +10300,7 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>64</v>
@@ -10306,13 +10309,13 @@
         <v>138</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -10350,8 +10353,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -10365,7 +10368,7 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>65</v>
@@ -10374,13 +10377,13 @@
         <v>138</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -10418,8 +10421,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -10433,7 +10436,7 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>68</v>
@@ -10442,13 +10445,13 @@
         <v>138</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -10486,8 +10489,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -10501,7 +10504,7 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>71</v>
@@ -10510,13 +10513,13 @@
         <v>138</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -10554,8 +10557,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10569,7 +10572,7 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>75</v>
@@ -10578,13 +10581,13 @@
         <v>138</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -10622,8 +10625,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10637,7 +10640,7 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>77</v>
@@ -10646,13 +10649,13 @@
         <v>138</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -10690,8 +10693,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10705,7 +10708,7 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>81</v>
@@ -10714,13 +10717,13 @@
         <v>138</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -10758,8 +10761,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10773,7 +10776,7 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>85</v>
@@ -10782,13 +10785,13 @@
         <v>138</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -10826,8 +10829,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10841,7 +10844,7 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>87</v>
@@ -10850,13 +10853,13 @@
         <v>138</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -10894,8 +10897,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10909,7 +10912,7 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>90</v>
@@ -10918,13 +10921,13 @@
         <v>138</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10962,8 +10965,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10977,7 +10980,7 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>93</v>
@@ -10986,13 +10989,13 @@
         <v>138</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -11030,8 +11033,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -11045,7 +11048,7 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>96</v>
@@ -11054,13 +11057,13 @@
         <v>138</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -11098,8 +11101,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -11113,7 +11116,7 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>99</v>
@@ -11122,13 +11125,13 @@
         <v>138</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -11166,8 +11169,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -11181,7 +11184,7 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>101</v>
@@ -11190,13 +11193,13 @@
         <v>138</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -11234,8 +11237,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11249,7 +11252,7 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>102</v>
@@ -11258,13 +11261,13 @@
         <v>138</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -11317,7 +11320,7 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>105</v>
@@ -11326,13 +11329,13 @@
         <v>138</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -11347,7 +11350,7 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>32</v>
@@ -11385,7 +11388,7 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -11394,13 +11397,13 @@
         <v>140</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -11438,8 +11441,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -11453,7 +11456,7 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>64</v>
@@ -11462,13 +11465,13 @@
         <v>140</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -11506,8 +11509,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -11530,13 +11533,13 @@
         <v>140</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -11574,8 +11577,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11589,7 +11592,7 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>68</v>
@@ -11598,13 +11601,13 @@
         <v>140</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -11642,8 +11645,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11657,7 +11660,7 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>71</v>
@@ -11666,13 +11669,13 @@
         <v>140</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -11710,8 +11713,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11725,7 +11728,7 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>75</v>
@@ -11734,13 +11737,13 @@
         <v>140</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -11778,8 +11781,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11793,7 +11796,7 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>77</v>
@@ -11802,13 +11805,13 @@
         <v>140</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -11846,8 +11849,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11861,7 +11864,7 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>81</v>
@@ -11870,13 +11873,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -11914,8 +11917,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11929,7 +11932,7 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>85</v>
@@ -11938,13 +11941,13 @@
         <v>140</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -11982,8 +11985,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -11997,7 +12000,7 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>87</v>
@@ -12006,13 +12009,13 @@
         <v>140</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -12050,8 +12053,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -12065,7 +12068,7 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>90</v>
@@ -12074,13 +12077,13 @@
         <v>140</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -12118,8 +12121,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -12133,7 +12136,7 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>93</v>
@@ -12142,13 +12145,13 @@
         <v>140</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -12186,8 +12189,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -12201,7 +12204,7 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>96</v>
@@ -12210,13 +12213,13 @@
         <v>140</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -12254,8 +12257,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -12269,7 +12272,7 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>99</v>
@@ -12278,13 +12281,13 @@
         <v>140</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -12322,8 +12325,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -12337,7 +12340,7 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>101</v>
@@ -12346,13 +12349,13 @@
         <v>140</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -12390,8 +12393,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -12405,7 +12408,7 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>102</v>
@@ -12414,13 +12417,13 @@
         <v>140</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -12473,7 +12476,7 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>105</v>
@@ -12482,13 +12485,13 @@
         <v>140</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -12541,7 +12544,7 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>50</v>
@@ -12550,13 +12553,13 @@
         <v>153</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -12594,8 +12597,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -12609,7 +12612,7 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>45</v>
@@ -12618,13 +12621,13 @@
         <v>155</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -12662,8 +12665,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -12677,7 +12680,7 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>65</v>
@@ -12686,13 +12689,13 @@
         <v>155</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -12730,8 +12733,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -12754,13 +12757,13 @@
         <v>155</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>28</v>
@@ -12798,8 +12801,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -12813,7 +12816,7 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>71</v>
@@ -12822,13 +12825,13 @@
         <v>155</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>28</v>
@@ -12866,8 +12869,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -12881,7 +12884,7 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>75</v>
@@ -12890,13 +12893,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>28</v>
@@ -12934,8 +12937,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -12949,7 +12952,7 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>77</v>
@@ -12958,13 +12961,13 @@
         <v>155</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>28</v>
@@ -13002,8 +13005,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -13017,7 +13020,7 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>81</v>
@@ -13026,13 +13029,13 @@
         <v>155</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>28</v>
@@ -13070,8 +13073,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -13085,7 +13088,7 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>85</v>
@@ -13094,13 +13097,13 @@
         <v>155</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>28</v>
@@ -13138,8 +13141,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -13153,7 +13156,7 @@
         <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>87</v>
@@ -13162,13 +13165,13 @@
         <v>155</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>28</v>
@@ -13206,8 +13209,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -13221,7 +13224,7 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>90</v>
@@ -13230,13 +13233,13 @@
         <v>155</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>28</v>
@@ -13274,8 +13277,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -13289,7 +13292,7 @@
         <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>93</v>
@@ -13298,13 +13301,13 @@
         <v>155</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>28</v>
@@ -13342,8 +13345,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -13357,7 +13360,7 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>96</v>
@@ -13366,13 +13369,13 @@
         <v>155</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>28</v>
@@ -13410,8 +13413,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -13425,7 +13428,7 @@
         <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>99</v>
@@ -13434,13 +13437,13 @@
         <v>155</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>28</v>
@@ -13478,8 +13481,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -13493,7 +13496,7 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>101</v>
@@ -13502,13 +13505,13 @@
         <v>155</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>28</v>
@@ -13546,8 +13549,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -13561,7 +13564,7 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>102</v>
@@ -13570,13 +13573,13 @@
         <v>155</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>28</v>
@@ -13629,7 +13632,7 @@
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>105</v>
@@ -13638,13 +13641,13 @@
         <v>155</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>28</v>
@@ -13750,8 +13753,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -13771,7 +13774,7 @@
         <v>42</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>264</v>
@@ -13818,8 +13821,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -13839,7 +13842,7 @@
         <v>50</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>264</v>
@@ -13886,8 +13889,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -13907,7 +13910,7 @@
         <v>61</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>264</v>
@@ -13954,8 +13957,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -13975,7 +13978,7 @@
         <v>77</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>264</v>
@@ -14022,8 +14025,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -14043,7 +14046,7 @@
         <v>96</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>264</v>
@@ -14090,8 +14093,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -14111,7 +14114,7 @@
         <v>102</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>264</v>
@@ -14179,7 +14182,7 @@
         <v>105</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>264</v>
@@ -14206,7 +14209,7 @@
         <v>39</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P176" s="2" t="s">
         <v>32</v>
@@ -14247,7 +14250,7 @@
         <v>34</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>273</v>
@@ -14294,8 +14297,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -14315,7 +14318,7 @@
         <v>37</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>273</v>
@@ -14362,8 +14365,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -14383,7 +14386,7 @@
         <v>42</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>273</v>
@@ -14430,8 +14433,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -14451,7 +14454,7 @@
         <v>45</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>273</v>
@@ -14498,8 +14501,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -14519,7 +14522,7 @@
         <v>50</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>273</v>
@@ -14566,8 +14569,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -14587,7 +14590,7 @@
         <v>54</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>273</v>
@@ -14634,8 +14637,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -14655,7 +14658,7 @@
         <v>57</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>273</v>
@@ -14702,8 +14705,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -14723,7 +14726,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>273</v>
@@ -14770,8 +14773,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -14791,7 +14794,7 @@
         <v>61</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>273</v>
@@ -14838,8 +14841,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -14859,7 +14862,7 @@
         <v>64</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>273</v>
@@ -14906,8 +14909,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -14927,7 +14930,7 @@
         <v>65</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>273</v>
@@ -14974,8 +14977,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188">
@@ -14995,7 +14998,7 @@
         <v>68</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>273</v>
@@ -15042,8 +15045,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -15063,7 +15066,7 @@
         <v>71</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>273</v>
@@ -15110,8 +15113,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -15131,7 +15134,7 @@
         <v>75</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>273</v>
@@ -15178,8 +15181,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -15199,7 +15202,7 @@
         <v>77</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>273</v>
@@ -15246,8 +15249,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -15267,7 +15270,7 @@
         <v>81</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>273</v>
@@ -15314,8 +15317,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -15335,7 +15338,7 @@
         <v>85</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>273</v>
@@ -15382,8 +15385,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -15403,7 +15406,7 @@
         <v>87</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>273</v>
@@ -15450,8 +15453,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -15471,7 +15474,7 @@
         <v>90</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>273</v>
@@ -15518,8 +15521,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -15539,7 +15542,7 @@
         <v>93</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>273</v>
@@ -15586,8 +15589,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -15607,7 +15610,7 @@
         <v>96</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>273</v>
@@ -15654,8 +15657,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -15675,7 +15678,7 @@
         <v>99</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>273</v>
@@ -15722,8 +15725,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -15743,7 +15746,7 @@
         <v>101</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>273</v>
@@ -15790,8 +15793,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -15811,7 +15814,7 @@
         <v>102</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>273</v>
@@ -15879,7 +15882,7 @@
         <v>105</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>273</v>
@@ -15906,7 +15909,7 @@
         <v>70</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P201" s="2" t="s">
         <v>32</v>
@@ -15947,7 +15950,7 @@
         <v>298</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>299</v>
@@ -15994,8 +15997,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -16015,7 +16018,7 @@
         <v>24</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>299</v>
@@ -16062,8 +16065,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -16083,7 +16086,7 @@
         <v>34</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>299</v>
@@ -16130,8 +16133,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -16151,7 +16154,7 @@
         <v>37</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>299</v>
@@ -16198,8 +16201,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -16219,7 +16222,7 @@
         <v>42</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>299</v>
@@ -16266,8 +16269,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -16287,7 +16290,7 @@
         <v>45</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>299</v>
@@ -16334,8 +16337,8 @@
       <c r="U207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>33</v>
+      <c r="V207" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -16355,7 +16358,7 @@
         <v>50</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>299</v>
@@ -16402,8 +16405,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -16423,7 +16426,7 @@
         <v>54</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>299</v>
@@ -16470,8 +16473,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -16491,7 +16494,7 @@
         <v>57</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>299</v>
@@ -16538,8 +16541,8 @@
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -16559,7 +16562,7 @@
         <v>60</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>299</v>
@@ -16606,8 +16609,8 @@
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -16627,7 +16630,7 @@
         <v>61</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>299</v>
@@ -16674,8 +16677,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -16695,7 +16698,7 @@
         <v>64</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>299</v>
@@ -16742,8 +16745,8 @@
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -16763,7 +16766,7 @@
         <v>65</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>299</v>
@@ -16810,8 +16813,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -16831,7 +16834,7 @@
         <v>68</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>299</v>
@@ -16878,8 +16881,8 @@
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -16899,7 +16902,7 @@
         <v>71</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>299</v>
@@ -16946,8 +16949,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -16967,7 +16970,7 @@
         <v>75</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>299</v>
@@ -17014,8 +17017,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -17035,7 +17038,7 @@
         <v>77</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>299</v>
@@ -17082,8 +17085,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -17103,7 +17106,7 @@
         <v>81</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>299</v>
@@ -17150,8 +17153,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -17171,7 +17174,7 @@
         <v>85</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>299</v>
@@ -17218,8 +17221,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -17239,7 +17242,7 @@
         <v>87</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>299</v>
@@ -17286,8 +17289,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -17307,7 +17310,7 @@
         <v>90</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>299</v>
@@ -17354,8 +17357,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -17375,7 +17378,7 @@
         <v>93</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>299</v>
@@ -17422,8 +17425,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -17443,7 +17446,7 @@
         <v>96</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>299</v>
@@ -17490,8 +17493,8 @@
       <c r="U224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>33</v>
+      <c r="V224" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225">
@@ -17511,7 +17514,7 @@
         <v>99</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>299</v>
@@ -17558,8 +17561,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -17579,7 +17582,7 @@
         <v>101</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>299</v>
@@ -17626,8 +17629,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -17647,7 +17650,7 @@
         <v>102</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>299</v>
@@ -17671,7 +17674,7 @@
         <v>30</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O227" s="2" t="s">
         <v>98</v>
@@ -17715,7 +17718,7 @@
         <v>105</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>299</v>
@@ -17739,10 +17742,10 @@
         <v>30</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>32</v>
@@ -17783,7 +17786,7 @@
         <v>102</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>325</v>
@@ -17851,7 +17854,7 @@
         <v>105</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>325</v>
@@ -17966,8 +17969,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -18034,8 +18037,8 @@
       <c r="U232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>33</v>
+      <c r="V232" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -18102,8 +18105,8 @@
       <c r="U233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>33</v>
+      <c r="V233" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -18170,8 +18173,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -18327,7 +18330,7 @@
         <v>85</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>335</v>
@@ -18374,8 +18377,8 @@
       <c r="U237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>33</v>
+      <c r="V237" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -18395,7 +18398,7 @@
         <v>42</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>339</v>
@@ -18442,8 +18445,8 @@
       <c r="U238" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>33</v>
+      <c r="V238" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="239">
@@ -18463,7 +18466,7 @@
         <v>45</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>339</v>
@@ -18510,8 +18513,8 @@
       <c r="U239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>33</v>
+      <c r="V239" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -18531,7 +18534,7 @@
         <v>50</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>339</v>
@@ -18578,8 +18581,8 @@
       <c r="U240" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>33</v>
+      <c r="V240" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="241">
@@ -18599,7 +18602,7 @@
         <v>64</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>339</v>
@@ -18646,8 +18649,8 @@
       <c r="U241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>33</v>
+      <c r="V241" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -18667,7 +18670,7 @@
         <v>65</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>339</v>
@@ -18714,8 +18717,8 @@
       <c r="U242" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>33</v>
+      <c r="V242" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -18735,7 +18738,7 @@
         <v>68</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>339</v>
@@ -18782,8 +18785,8 @@
       <c r="U243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>33</v>
+      <c r="V243" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="244">
@@ -18803,7 +18806,7 @@
         <v>71</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>339</v>
@@ -18850,8 +18853,8 @@
       <c r="U244" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>33</v>
+      <c r="V244" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -18871,7 +18874,7 @@
         <v>75</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>339</v>
@@ -18918,8 +18921,8 @@
       <c r="U245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>33</v>
+      <c r="V245" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="246">
@@ -18939,7 +18942,7 @@
         <v>77</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>339</v>
@@ -18986,8 +18989,8 @@
       <c r="U246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>33</v>
+      <c r="V246" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247">
@@ -19007,7 +19010,7 @@
         <v>81</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>339</v>
@@ -19054,8 +19057,8 @@
       <c r="U247" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>33</v>
+      <c r="V247" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -19075,7 +19078,7 @@
         <v>85</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>339</v>
@@ -19122,8 +19125,8 @@
       <c r="U248" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>33</v>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -19143,7 +19146,7 @@
         <v>87</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>339</v>
@@ -19190,8 +19193,8 @@
       <c r="U249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>33</v>
+      <c r="V249" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -19211,7 +19214,7 @@
         <v>90</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>339</v>
@@ -19258,8 +19261,8 @@
       <c r="U250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>33</v>
+      <c r="V250" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -19279,7 +19282,7 @@
         <v>93</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>339</v>
@@ -19326,8 +19329,8 @@
       <c r="U251" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>33</v>
+      <c r="V251" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="252">
@@ -19347,7 +19350,7 @@
         <v>96</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>339</v>
@@ -19394,8 +19397,8 @@
       <c r="U252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>33</v>
+      <c r="V252" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="253">
@@ -19415,7 +19418,7 @@
         <v>99</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>339</v>
@@ -19462,8 +19465,8 @@
       <c r="U253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>33</v>
+      <c r="V253" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -19483,7 +19486,7 @@
         <v>101</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>339</v>
@@ -19530,8 +19533,8 @@
       <c r="U254" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>33</v>
+      <c r="V254" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -19551,7 +19554,7 @@
         <v>102</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>339</v>
@@ -19619,7 +19622,7 @@
         <v>105</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>339</v>
@@ -19646,7 +19649,7 @@
         <v>40</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P256" s="2" t="s">
         <v>32</v>
@@ -19687,7 +19690,7 @@
         <v>93</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>360</v>
@@ -19734,8 +19737,8 @@
       <c r="U257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>33</v>
+      <c r="V257" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -19755,7 +19758,7 @@
         <v>96</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>360</v>
@@ -19802,8 +19805,8 @@
       <c r="U258" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>33</v>
+      <c r="V258" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -19823,7 +19826,7 @@
         <v>102</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>360</v>
@@ -19891,7 +19894,7 @@
         <v>105</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>360</v>
@@ -19918,7 +19921,7 @@
         <v>31</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P260" s="2" t="s">
         <v>32</v>
@@ -19959,7 +19962,7 @@
         <v>54</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>366</v>
@@ -20006,8 +20009,8 @@
       <c r="U261" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V261" s="1" t="s">
-        <v>33</v>
+      <c r="V261" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="262">
@@ -20027,7 +20030,7 @@
         <v>57</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>366</v>
@@ -20074,8 +20077,8 @@
       <c r="U262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>33</v>
+      <c r="V262" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -20095,7 +20098,7 @@
         <v>60</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>366</v>
@@ -20142,8 +20145,8 @@
       <c r="U263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>33</v>
+      <c r="V263" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -20163,7 +20166,7 @@
         <v>61</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>366</v>
@@ -20210,8 +20213,8 @@
       <c r="U264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>33</v>
+      <c r="V264" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -20231,7 +20234,7 @@
         <v>64</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>366</v>
@@ -20278,8 +20281,8 @@
       <c r="U265" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>33</v>
+      <c r="V265" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -20299,7 +20302,7 @@
         <v>65</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>366</v>
@@ -20346,8 +20349,8 @@
       <c r="U266" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>33</v>
+      <c r="V266" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -20367,7 +20370,7 @@
         <v>68</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>366</v>
@@ -20414,8 +20417,8 @@
       <c r="U267" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>33</v>
+      <c r="V267" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -20435,7 +20438,7 @@
         <v>71</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>366</v>
@@ -20482,8 +20485,8 @@
       <c r="U268" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>33</v>
+      <c r="V268" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -20497,13 +20500,13 @@
         <v>22</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>366</v>
@@ -20550,8 +20553,8 @@
       <c r="U269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>33</v>
+      <c r="V269" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -20565,13 +20568,13 @@
         <v>22</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>366</v>
@@ -20618,8 +20621,8 @@
       <c r="U270" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>33</v>
+      <c r="V270" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -20633,13 +20636,13 @@
         <v>22</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>366</v>
@@ -20686,8 +20689,8 @@
       <c r="U271" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>33</v>
+      <c r="V271" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -20701,13 +20704,13 @@
         <v>22</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>366</v>
@@ -20754,8 +20757,8 @@
       <c r="U272" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>33</v>
+      <c r="V272" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -20769,13 +20772,13 @@
         <v>22</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>366</v>
@@ -20822,8 +20825,8 @@
       <c r="U273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>33</v>
+      <c r="V273" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274">
@@ -20837,13 +20840,13 @@
         <v>22</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>366</v>
@@ -20890,8 +20893,8 @@
       <c r="U274" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>33</v>
+      <c r="V274" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -20905,13 +20908,13 @@
         <v>22</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>366</v>
@@ -20958,8 +20961,8 @@
       <c r="U275" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>33</v>
+      <c r="V275" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -20973,13 +20976,13 @@
         <v>22</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>366</v>
@@ -21026,8 +21029,8 @@
       <c r="U276" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>33</v>
+      <c r="V276" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -21047,7 +21050,7 @@
         <v>99</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>366</v>
@@ -21094,8 +21097,8 @@
       <c r="U277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>33</v>
+      <c r="V277" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -21115,7 +21118,7 @@
         <v>101</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>366</v>
@@ -21162,8 +21165,8 @@
       <c r="U278" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>33</v>
+      <c r="V278" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -21183,7 +21186,7 @@
         <v>102</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>366</v>
@@ -21251,7 +21254,7 @@
         <v>105</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>366</v>
@@ -21319,7 +21322,7 @@
         <v>42</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>386</v>
@@ -21366,8 +21369,8 @@
       <c r="U281" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>33</v>
+      <c r="V281" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -21387,7 +21390,7 @@
         <v>45</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>386</v>
@@ -21434,8 +21437,8 @@
       <c r="U282" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>33</v>
+      <c r="V282" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -21455,7 +21458,7 @@
         <v>50</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>386</v>
@@ -21502,8 +21505,8 @@
       <c r="U283" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>33</v>
+      <c r="V283" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -21523,7 +21526,7 @@
         <v>60</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>386</v>
@@ -21570,8 +21573,8 @@
       <c r="U284" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>33</v>
+      <c r="V284" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -21591,7 +21594,7 @@
         <v>64</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>386</v>
@@ -21638,8 +21641,8 @@
       <c r="U285" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>33</v>
+      <c r="V285" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -21659,7 +21662,7 @@
         <v>65</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>386</v>
@@ -21706,8 +21709,8 @@
       <c r="U286" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>33</v>
+      <c r="V286" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -21727,7 +21730,7 @@
         <v>68</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>386</v>
@@ -21774,8 +21777,8 @@
       <c r="U287" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>33</v>
+      <c r="V287" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -21795,7 +21798,7 @@
         <v>71</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>386</v>
@@ -21842,8 +21845,8 @@
       <c r="U288" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>33</v>
+      <c r="V288" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -21863,7 +21866,7 @@
         <v>75</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>386</v>
@@ -21910,8 +21913,8 @@
       <c r="U289" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>33</v>
+      <c r="V289" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -21931,7 +21934,7 @@
         <v>77</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>386</v>
@@ -21978,8 +21981,8 @@
       <c r="U290" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>33</v>
+      <c r="V290" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="291">
@@ -21999,7 +22002,7 @@
         <v>81</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>386</v>
@@ -22046,8 +22049,8 @@
       <c r="U291" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>33</v>
+      <c r="V291" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="292">
@@ -22067,7 +22070,7 @@
         <v>85</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>386</v>
@@ -22114,8 +22117,8 @@
       <c r="U292" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>33</v>
+      <c r="V292" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="293">
@@ -22135,7 +22138,7 @@
         <v>87</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>386</v>
@@ -22182,8 +22185,8 @@
       <c r="U293" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>33</v>
+      <c r="V293" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -22203,7 +22206,7 @@
         <v>90</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>386</v>
@@ -22250,8 +22253,8 @@
       <c r="U294" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>33</v>
+      <c r="V294" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -22271,7 +22274,7 @@
         <v>93</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>386</v>
@@ -22318,8 +22321,8 @@
       <c r="U295" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>33</v>
+      <c r="V295" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -22339,7 +22342,7 @@
         <v>96</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>386</v>
@@ -22386,8 +22389,8 @@
       <c r="U296" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>33</v>
+      <c r="V296" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -22407,7 +22410,7 @@
         <v>99</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>386</v>
@@ -22454,8 +22457,8 @@
       <c r="U297" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V297" s="1" t="s">
-        <v>33</v>
+      <c r="V297" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="298">
@@ -22475,7 +22478,7 @@
         <v>101</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>386</v>
@@ -22522,8 +22525,8 @@
       <c r="U298" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>33</v>
+      <c r="V298" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="299">
@@ -22543,7 +22546,7 @@
         <v>102</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>386</v>
@@ -22611,7 +22614,7 @@
         <v>105</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>386</v>
@@ -22679,7 +22682,7 @@
         <v>37</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>408</v>
@@ -22726,8 +22729,8 @@
       <c r="U301" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>33</v>
+      <c r="V301" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -22747,7 +22750,7 @@
         <v>42</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>408</v>
@@ -22771,7 +22774,7 @@
         <v>30</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O302" s="2" t="s">
         <v>121</v>
@@ -22794,8 +22797,8 @@
       <c r="U302" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>33</v>
+      <c r="V302" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="303">
@@ -22815,7 +22818,7 @@
         <v>45</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>408</v>
@@ -22842,7 +22845,7 @@
         <v>332</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P303" s="2" t="s">
         <v>32</v>
@@ -22862,8 +22865,8 @@
       <c r="U303" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>33</v>
+      <c r="V303" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="304">
@@ -22883,7 +22886,7 @@
         <v>50</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>408</v>
@@ -22930,8 +22933,8 @@
       <c r="U304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>33</v>
+      <c r="V304" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="305">
@@ -22951,7 +22954,7 @@
         <v>54</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>408</v>
@@ -22998,8 +23001,8 @@
       <c r="U305" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>33</v>
+      <c r="V305" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -23019,7 +23022,7 @@
         <v>57</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>408</v>
@@ -23066,8 +23069,8 @@
       <c r="U306" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>33</v>
+      <c r="V306" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="307">
@@ -23087,7 +23090,7 @@
         <v>60</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>408</v>
@@ -23134,8 +23137,8 @@
       <c r="U307" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>33</v>
+      <c r="V307" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="308">
@@ -23155,7 +23158,7 @@
         <v>61</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>408</v>
@@ -23202,8 +23205,8 @@
       <c r="U308" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>33</v>
+      <c r="V308" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -23223,7 +23226,7 @@
         <v>64</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>408</v>
@@ -23270,8 +23273,8 @@
       <c r="U309" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>33</v>
+      <c r="V309" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="310">
@@ -23291,7 +23294,7 @@
         <v>65</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>408</v>
@@ -23338,8 +23341,8 @@
       <c r="U310" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>33</v>
+      <c r="V310" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="311">
@@ -23359,7 +23362,7 @@
         <v>68</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>408</v>
@@ -23406,8 +23409,8 @@
       <c r="U311" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>33</v>
+      <c r="V311" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="312">
@@ -23427,7 +23430,7 @@
         <v>71</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>408</v>
@@ -23474,8 +23477,8 @@
       <c r="U312" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>33</v>
+      <c r="V312" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="313">
@@ -23495,7 +23498,7 @@
         <v>75</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>408</v>
@@ -23542,8 +23545,8 @@
       <c r="U313" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>33</v>
+      <c r="V313" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="314">
@@ -23563,7 +23566,7 @@
         <v>77</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>408</v>
@@ -23610,8 +23613,8 @@
       <c r="U314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>33</v>
+      <c r="V314" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="315">
@@ -23631,7 +23634,7 @@
         <v>81</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>408</v>
@@ -23678,8 +23681,8 @@
       <c r="U315" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>33</v>
+      <c r="V315" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="316">
@@ -23699,7 +23702,7 @@
         <v>85</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>408</v>
@@ -23746,8 +23749,8 @@
       <c r="U316" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>33</v>
+      <c r="V316" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="317">
@@ -23767,7 +23770,7 @@
         <v>87</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>408</v>
@@ -23814,8 +23817,8 @@
       <c r="U317" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>33</v>
+      <c r="V317" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="318">
@@ -23835,7 +23838,7 @@
         <v>90</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>408</v>
@@ -23882,8 +23885,8 @@
       <c r="U318" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>33</v>
+      <c r="V318" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="319">
@@ -23903,7 +23906,7 @@
         <v>93</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>408</v>
@@ -23950,8 +23953,8 @@
       <c r="U319" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>33</v>
+      <c r="V319" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="320">
@@ -23971,7 +23974,7 @@
         <v>96</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>408</v>
@@ -24018,8 +24021,8 @@
       <c r="U320" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>33</v>
+      <c r="V320" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -24039,7 +24042,7 @@
         <v>99</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>408</v>
@@ -24086,8 +24089,8 @@
       <c r="U321" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>33</v>
+      <c r="V321" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="322">
@@ -24107,7 +24110,7 @@
         <v>101</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>408</v>
@@ -24154,8 +24157,8 @@
       <c r="U322" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>33</v>
+      <c r="V322" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="323">
@@ -24175,7 +24178,7 @@
         <v>102</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>408</v>
@@ -24202,7 +24205,7 @@
         <v>445</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P323" s="2" t="s">
         <v>32</v>
@@ -24243,7 +24246,7 @@
         <v>105</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>408</v>
@@ -24270,7 +24273,7 @@
         <v>447</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="P324" s="2" t="s">
         <v>32</v>
@@ -24358,8 +24361,8 @@
       <c r="U325" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>33</v>
+      <c r="V325" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -24426,8 +24429,8 @@
       <c r="U326" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V326" s="1" t="s">
-        <v>33</v>
+      <c r="V326" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="327">
@@ -24494,8 +24497,8 @@
       <c r="U327" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V327" s="1" t="s">
-        <v>33</v>
+      <c r="V327" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="328">
@@ -24562,8 +24565,8 @@
       <c r="U328" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>33</v>
+      <c r="V328" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="329">
@@ -24630,8 +24633,8 @@
       <c r="U329" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>33</v>
+      <c r="V329" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="330">
@@ -24698,8 +24701,8 @@
       <c r="U330" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>33</v>
+      <c r="V330" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="331">
@@ -24766,8 +24769,8 @@
       <c r="U331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>33</v>
+      <c r="V331" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="332">
@@ -24834,8 +24837,8 @@
       <c r="U332" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>33</v>
+      <c r="V332" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -24902,8 +24905,8 @@
       <c r="U333" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>33</v>
+      <c r="V333" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="334">
@@ -24970,8 +24973,8 @@
       <c r="U334" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>33</v>
+      <c r="V334" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="335">
@@ -25038,8 +25041,8 @@
       <c r="U335" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V335" s="1" t="s">
-        <v>33</v>
+      <c r="V335" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="336">
@@ -25106,8 +25109,8 @@
       <c r="U336" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V336" s="1" t="s">
-        <v>33</v>
+      <c r="V336" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="337">
@@ -25174,8 +25177,8 @@
       <c r="U337" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>33</v>
+      <c r="V337" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="338">
@@ -25242,8 +25245,8 @@
       <c r="U338" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>33</v>
+      <c r="V338" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="339">
@@ -25310,8 +25313,8 @@
       <c r="U339" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>33</v>
+      <c r="V339" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="340">
@@ -25378,8 +25381,8 @@
       <c r="U340" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>33</v>
+      <c r="V340" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -25446,8 +25449,8 @@
       <c r="U341" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>33</v>
+      <c r="V341" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -25514,8 +25517,8 @@
       <c r="U342" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>33</v>
+      <c r="V342" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -25582,8 +25585,8 @@
       <c r="U343" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>33</v>
+      <c r="V343" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="344">
@@ -25650,8 +25653,8 @@
       <c r="U344" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>33</v>
+      <c r="V344" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="345">
@@ -25718,8 +25721,8 @@
       <c r="U345" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>33</v>
+      <c r="V345" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -25786,8 +25789,8 @@
       <c r="U346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>33</v>
+      <c r="V346" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347">
@@ -25990,8 +25993,8 @@
       <c r="U349" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>33</v>
+      <c r="V349" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="350">
@@ -26058,8 +26061,8 @@
       <c r="U350" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>33</v>
+      <c r="V350" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -26171,10 +26174,10 @@
         <v>30</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O352" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P352" s="2" t="s">
         <v>32</v>
@@ -26262,8 +26265,8 @@
       <c r="U353" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V353" s="1" t="s">
-        <v>33</v>
+      <c r="V353" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="354">
@@ -26330,8 +26333,8 @@
       <c r="U354" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>33</v>
+      <c r="V354" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="355">
@@ -26398,8 +26401,8 @@
       <c r="U355" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>33</v>
+      <c r="V355" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="356">
@@ -26466,8 +26469,8 @@
       <c r="U356" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>33</v>
+      <c r="V356" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="357">
@@ -26534,8 +26537,8 @@
       <c r="U357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>33</v>
+      <c r="V357" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="358">
@@ -26602,8 +26605,8 @@
       <c r="U358" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>33</v>
+      <c r="V358" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="359">
@@ -26670,8 +26673,8 @@
       <c r="U359" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>33</v>
+      <c r="V359" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="360">
@@ -26738,8 +26741,8 @@
       <c r="U360" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>33</v>
+      <c r="V360" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="361">
@@ -26806,8 +26809,8 @@
       <c r="U361" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>33</v>
+      <c r="V361" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="362">
@@ -26851,7 +26854,7 @@
         <v>30</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O362" s="2" t="s">
         <v>35</v>
@@ -26874,8 +26877,8 @@
       <c r="U362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>33</v>
+      <c r="V362" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="363">
@@ -26942,8 +26945,8 @@
       <c r="U363" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>33</v>
+      <c r="V363" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="364">
@@ -27010,8 +27013,8 @@
       <c r="U364" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>33</v>
+      <c r="V364" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="365">
@@ -27078,8 +27081,8 @@
       <c r="U365" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>33</v>
+      <c r="V365" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="366">
@@ -27146,8 +27149,8 @@
       <c r="U366" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>33</v>
+      <c r="V366" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="367">
@@ -27214,8 +27217,8 @@
       <c r="U367" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>33</v>
+      <c r="V367" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="368">
@@ -27330,7 +27333,7 @@
         <v>506</v>
       </c>
       <c r="O369" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="P369" s="2" t="s">
         <v>32</v>
@@ -27418,8 +27421,8 @@
       <c r="U370" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V370" s="1" t="s">
-        <v>33</v>
+      <c r="V370" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="371">
@@ -27486,8 +27489,8 @@
       <c r="U371" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V371" s="1" t="s">
-        <v>33</v>
+      <c r="V371" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="372">
@@ -27554,8 +27557,8 @@
       <c r="U372" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V372" s="1" t="s">
-        <v>33</v>
+      <c r="V372" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="373">
@@ -27622,8 +27625,8 @@
       <c r="U373" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V373" s="1" t="s">
-        <v>33</v>
+      <c r="V373" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="374">
@@ -27690,8 +27693,8 @@
       <c r="U374" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V374" s="1" t="s">
-        <v>33</v>
+      <c r="V374" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="375">
@@ -27738,7 +27741,7 @@
         <v>157</v>
       </c>
       <c r="O375" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P375" s="2" t="s">
         <v>32</v>
@@ -27758,8 +27761,8 @@
       <c r="U375" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V375" s="1" t="s">
-        <v>33</v>
+      <c r="V375" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="376">
@@ -27803,7 +27806,7 @@
         <v>30</v>
       </c>
       <c r="N376" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O376" s="2" t="s">
         <v>39</v>
@@ -27826,8 +27829,8 @@
       <c r="U376" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V376" s="1" t="s">
-        <v>33</v>
+      <c r="V376" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="377">
@@ -27871,7 +27874,7 @@
         <v>30</v>
       </c>
       <c r="N377" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O377" s="2" t="s">
         <v>39</v>
@@ -27894,8 +27897,8 @@
       <c r="U377" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>33</v>
+      <c r="V377" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="378">
@@ -27939,7 +27942,7 @@
         <v>30</v>
       </c>
       <c r="N378" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O378" s="2" t="s">
         <v>98</v>
@@ -28007,10 +28010,10 @@
         <v>30</v>
       </c>
       <c r="N379" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O379" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="P379" s="2" t="s">
         <v>32</v>
@@ -28166,8 +28169,8 @@
       <c r="U381" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>33</v>
+      <c r="V381" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="382">
@@ -28234,8 +28237,8 @@
       <c r="U382" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V382" s="1" t="s">
-        <v>33</v>
+      <c r="V382" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="383">
@@ -28302,8 +28305,8 @@
       <c r="U383" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V383" s="1" t="s">
-        <v>33</v>
+      <c r="V383" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="384">
@@ -28370,8 +28373,8 @@
       <c r="U384" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V384" s="1" t="s">
-        <v>33</v>
+      <c r="V384" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="385">
@@ -28438,8 +28441,8 @@
       <c r="U385" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V385" s="1" t="s">
-        <v>33</v>
+      <c r="V385" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="386">
@@ -28506,8 +28509,8 @@
       <c r="U386" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V386" s="1" t="s">
-        <v>33</v>
+      <c r="V386" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="387">
@@ -28574,8 +28577,8 @@
       <c r="U387" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V387" s="1" t="s">
-        <v>33</v>
+      <c r="V387" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="388">
@@ -28687,10 +28690,10 @@
         <v>30</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P389" s="2" t="s">
         <v>32</v>
@@ -28778,8 +28781,8 @@
       <c r="U390" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V390" s="1" t="s">
-        <v>33</v>
+      <c r="V390" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="391">
@@ -28846,8 +28849,8 @@
       <c r="U391" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V391" s="1" t="s">
-        <v>33</v>
+      <c r="V391" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="392">
@@ -28914,8 +28917,8 @@
       <c r="U392" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V392" s="1" t="s">
-        <v>33</v>
+      <c r="V392" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="393">
@@ -28982,8 +28985,8 @@
       <c r="U393" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V393" s="1" t="s">
-        <v>33</v>
+      <c r="V393" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="394">
@@ -29050,8 +29053,8 @@
       <c r="U394" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V394" s="1" t="s">
-        <v>33</v>
+      <c r="V394" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="395">
@@ -29118,8 +29121,8 @@
       <c r="U395" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V395" s="1" t="s">
-        <v>33</v>
+      <c r="V395" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="396">
@@ -29186,8 +29189,8 @@
       <c r="U396" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V396" s="1" t="s">
-        <v>33</v>
+      <c r="V396" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="397">
@@ -29254,8 +29257,8 @@
       <c r="U397" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V397" s="1" t="s">
-        <v>33</v>
+      <c r="V397" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="398">
@@ -29322,8 +29325,8 @@
       <c r="U398" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V398" s="1" t="s">
-        <v>33</v>
+      <c r="V398" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="399">
@@ -29390,8 +29393,8 @@
       <c r="U399" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V399" s="1" t="s">
-        <v>33</v>
+      <c r="V399" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="400">
@@ -29506,7 +29509,7 @@
         <v>549</v>
       </c>
       <c r="O401" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P401" s="2" t="s">
         <v>550</v>
@@ -29730,8 +29733,8 @@
       <c r="U404" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V404" s="1" t="s">
-        <v>33</v>
+      <c r="V404" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="405">
@@ -29798,8 +29801,8 @@
       <c r="U405" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V405" s="1" t="s">
-        <v>33</v>
+      <c r="V405" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="406">
@@ -29866,8 +29869,8 @@
       <c r="U406" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V406" s="1" t="s">
-        <v>33</v>
+      <c r="V406" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="407">
@@ -29934,8 +29937,8 @@
       <c r="U407" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V407" s="1" t="s">
-        <v>33</v>
+      <c r="V407" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="408">
@@ -30002,8 +30005,8 @@
       <c r="U408" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V408" s="1" t="s">
-        <v>33</v>
+      <c r="V408" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="409">
@@ -30070,8 +30073,8 @@
       <c r="U409" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V409" s="1" t="s">
-        <v>33</v>
+      <c r="V409" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="410">
@@ -30138,8 +30141,8 @@
       <c r="U410" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V410" s="1" t="s">
-        <v>33</v>
+      <c r="V410" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="411">
@@ -30206,8 +30209,8 @@
       <c r="U411" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V411" s="1" t="s">
-        <v>33</v>
+      <c r="V411" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="412">
@@ -30274,8 +30277,8 @@
       <c r="U412" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V412" s="1" t="s">
-        <v>33</v>
+      <c r="V412" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="413">
@@ -30342,8 +30345,8 @@
       <c r="U413" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V413" s="1" t="s">
-        <v>33</v>
+      <c r="V413" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="414">
@@ -30410,8 +30413,8 @@
       <c r="U414" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V414" s="1" t="s">
-        <v>33</v>
+      <c r="V414" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="415">
@@ -30478,8 +30481,8 @@
       <c r="U415" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V415" s="1" t="s">
-        <v>33</v>
+      <c r="V415" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="416">
@@ -30546,8 +30549,8 @@
       <c r="U416" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V416" s="1" t="s">
-        <v>33</v>
+      <c r="V416" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="417">
@@ -30614,8 +30617,8 @@
       <c r="U417" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V417" s="1" t="s">
-        <v>33</v>
+      <c r="V417" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="418">
@@ -30682,8 +30685,8 @@
       <c r="U418" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V418" s="1" t="s">
-        <v>33</v>
+      <c r="V418" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="419">
@@ -30750,8 +30753,8 @@
       <c r="U419" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V419" s="1" t="s">
-        <v>33</v>
+      <c r="V419" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="420">
@@ -31090,8 +31093,8 @@
       <c r="U424" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V424" s="1" t="s">
-        <v>33</v>
+      <c r="V424" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="425">
@@ -31158,8 +31161,8 @@
       <c r="U425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V425" s="1" t="s">
-        <v>33</v>
+      <c r="V425" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="426">
@@ -31226,8 +31229,8 @@
       <c r="U426" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V426" s="1" t="s">
-        <v>33</v>
+      <c r="V426" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="427">
@@ -31294,8 +31297,8 @@
       <c r="U427" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V427" s="1" t="s">
-        <v>33</v>
+      <c r="V427" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="428">
@@ -31362,8 +31365,8 @@
       <c r="U428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V428" s="1" t="s">
-        <v>33</v>
+      <c r="V428" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="429">
@@ -31430,8 +31433,8 @@
       <c r="U429" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V429" s="1" t="s">
-        <v>33</v>
+      <c r="V429" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="430">
@@ -31498,8 +31501,8 @@
       <c r="U430" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V430" s="1" t="s">
-        <v>33</v>
+      <c r="V430" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="431">
@@ -31566,8 +31569,8 @@
       <c r="U431" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V431" s="1" t="s">
-        <v>33</v>
+      <c r="V431" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="432">
@@ -31634,8 +31637,8 @@
       <c r="U432" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V432" s="1" t="s">
-        <v>33</v>
+      <c r="V432" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="433">
@@ -31702,8 +31705,8 @@
       <c r="U433" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V433" s="1" t="s">
-        <v>33</v>
+      <c r="V433" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="434">
@@ -31770,8 +31773,8 @@
       <c r="U434" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V434" s="1" t="s">
-        <v>33</v>
+      <c r="V434" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="435">
@@ -31838,8 +31841,8 @@
       <c r="U435" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V435" s="1" t="s">
-        <v>33</v>
+      <c r="V435" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="436">
@@ -31906,8 +31909,8 @@
       <c r="U436" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V436" s="1" t="s">
-        <v>33</v>
+      <c r="V436" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="437">
@@ -31974,8 +31977,8 @@
       <c r="U437" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V437" s="1" t="s">
-        <v>33</v>
+      <c r="V437" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="438">
@@ -32042,8 +32045,8 @@
       <c r="U438" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V438" s="1" t="s">
-        <v>33</v>
+      <c r="V438" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="439">
@@ -32110,8 +32113,8 @@
       <c r="U439" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V439" s="1" t="s">
-        <v>33</v>
+      <c r="V439" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="440">
@@ -32178,8 +32181,8 @@
       <c r="U440" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V440" s="1" t="s">
-        <v>33</v>
+      <c r="V440" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="441">
@@ -32246,8 +32249,8 @@
       <c r="U441" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V441" s="1" t="s">
-        <v>33</v>
+      <c r="V441" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="442">
@@ -32314,8 +32317,8 @@
       <c r="U442" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V442" s="1" t="s">
-        <v>33</v>
+      <c r="V442" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="443">
@@ -32427,7 +32430,7 @@
         <v>30</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O444" s="2" t="s">
         <v>32</v>
@@ -32442,7 +32445,7 @@
         <v>32</v>
       </c>
       <c r="S444" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="T444" s="2" t="s">
         <v>32</v>

--- a/Excel-XLSX/UN-LTU.xlsx
+++ b/Excel-XLSX/UN-LTU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="656">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>OUjt17</t>
+    <t>cnoN5U</t>
   </si>
   <si>
     <t>1997</t>
@@ -1890,6 +1890,9 @@
     <t>447</t>
   </si>
   <si>
+    <t>702</t>
+  </si>
+  <si>
     <t>448</t>
   </si>
   <si>
@@ -1905,21 +1908,18 @@
     <t>452</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>GAM</t>
-  </si>
-  <si>
-    <t>GMB</t>
-  </si>
-  <si>
     <t>454</t>
   </si>
   <si>
     <t>455</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
     <t>456</t>
   </si>
   <si>
@@ -1938,18 +1938,24 @@
     <t>461</t>
   </si>
   <si>
+    <t>923</t>
+  </si>
+  <si>
     <t>462</t>
   </si>
   <si>
     <t>464</t>
   </si>
   <si>
-    <t>905</t>
+    <t>2236</t>
   </si>
   <si>
     <t>465</t>
   </si>
   <si>
+    <t>509</t>
+  </si>
+  <si>
     <t>466</t>
   </si>
   <si>
@@ -1959,43 +1965,25 @@
     <t>468</t>
   </si>
   <si>
-    <t>505</t>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>UAE</t>
   </si>
   <si>
     <t>469</t>
   </si>
   <si>
+    <t>50641</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
     <t>470</t>
   </si>
   <si>
     <t>471</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>43901</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>475</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2368,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V476"/>
+  <dimension ref="A1:V472"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -32621,7 +32609,7 @@
         <v>30</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O445" s="2" t="s">
         <v>31</v>
@@ -32665,16 +32653,16 @@
         <v>620</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>535</v>
+        <v>229</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>536</v>
+        <v>230</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>537</v>
+        <v>230</v>
       </c>
       <c r="J446" s="2" t="s">
         <v>28</v>
@@ -32689,10 +32677,10 @@
         <v>30</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P446" s="2" t="s">
         <v>32</v>
@@ -32733,16 +32721,16 @@
         <v>620</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>28</v>
@@ -32757,7 +32745,7 @@
         <v>30</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="O447" s="2" t="s">
         <v>31</v>
@@ -32801,16 +32789,16 @@
         <v>620</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>28</v>
@@ -32825,10 +32813,10 @@
         <v>30</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>115</v>
+        <v>624</v>
       </c>
       <c r="O448" s="2" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="P448" s="2" t="s">
         <v>32</v>
@@ -32863,22 +32851,22 @@
         <v>22</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>28</v>
@@ -32893,10 +32881,10 @@
         <v>30</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>446</v>
+        <v>52</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>32</v>
@@ -32931,22 +32919,22 @@
         <v>22</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>28</v>
@@ -32961,7 +32949,7 @@
         <v>30</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O450" s="2" t="s">
         <v>31</v>
@@ -32999,22 +32987,22 @@
         <v>22</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>28</v>
@@ -33029,7 +33017,7 @@
         <v>30</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O451" s="2" t="s">
         <v>32</v>
@@ -33067,22 +33055,22 @@
         <v>22</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="J452" s="2" t="s">
         <v>28</v>
@@ -33097,7 +33085,7 @@
         <v>30</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="O452" s="2" t="s">
         <v>32</v>
@@ -33135,22 +33123,22 @@
         <v>22</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>28</v>
@@ -33209,16 +33197,16 @@
         <v>620</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>629</v>
+        <v>44</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>630</v>
+        <v>45</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>631</v>
+        <v>45</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>28</v>
@@ -33233,10 +33221,10 @@
         <v>30</v>
       </c>
       <c r="N454" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P454" s="2" t="s">
         <v>32</v>
@@ -33271,22 +33259,22 @@
         <v>22</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>28</v>
@@ -33301,10 +33289,10 @@
         <v>30</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P455" s="2" t="s">
         <v>32</v>
@@ -33339,22 +33327,22 @@
         <v>22</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>69</v>
+        <v>632</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>70</v>
+        <v>633</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>70</v>
+        <v>633</v>
       </c>
       <c r="J456" s="2" t="s">
         <v>28</v>
@@ -33369,7 +33357,7 @@
         <v>30</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O456" s="2" t="s">
         <v>32</v>
@@ -33413,16 +33401,16 @@
         <v>620</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>45</v>
+        <v>551</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>45</v>
+        <v>551</v>
       </c>
       <c r="J457" s="2" t="s">
         <v>28</v>
@@ -33437,7 +33425,7 @@
         <v>30</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O457" s="2" t="s">
         <v>32</v>
@@ -33481,16 +33469,16 @@
         <v>620</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>28</v>
@@ -33505,10 +33493,10 @@
         <v>30</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P458" s="2" t="s">
         <v>32</v>
@@ -33549,16 +33537,16 @@
         <v>620</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>551</v>
+        <v>442</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>551</v>
+        <v>442</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>28</v>
@@ -33573,10 +33561,10 @@
         <v>30</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P459" s="2" t="s">
         <v>32</v>
@@ -33617,16 +33605,16 @@
         <v>620</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="J460" s="2" t="s">
         <v>28</v>
@@ -33685,16 +33673,16 @@
         <v>620</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>28</v>
@@ -33709,10 +33697,10 @@
         <v>30</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O461" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P461" s="2" t="s">
         <v>32</v>
@@ -33753,16 +33741,16 @@
         <v>620</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>441</v>
+        <v>54</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>442</v>
+        <v>55</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>442</v>
+        <v>55</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>28</v>
@@ -33777,10 +33765,10 @@
         <v>30</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>38</v>
+        <v>640</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="P462" s="2" t="s">
         <v>32</v>
@@ -33815,22 +33803,22 @@
         <v>22</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>28</v>
@@ -33845,10 +33833,10 @@
         <v>30</v>
       </c>
       <c r="N463" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P463" s="2" t="s">
         <v>32</v>
@@ -33889,16 +33877,16 @@
         <v>620</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>28</v>
@@ -33913,7 +33901,7 @@
         <v>30</v>
       </c>
       <c r="N464" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="O464" s="2" t="s">
         <v>32</v>
@@ -33951,22 +33939,22 @@
         <v>22</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="J465" s="2" t="s">
         <v>28</v>
@@ -33981,10 +33969,10 @@
         <v>30</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>642</v>
+        <v>50</v>
       </c>
       <c r="O465" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="P465" s="2" t="s">
         <v>32</v>
@@ -33996,7 +33984,7 @@
         <v>32</v>
       </c>
       <c r="S465" s="2" t="s">
-        <v>32</v>
+        <v>643</v>
       </c>
       <c r="T465" s="2" t="s">
         <v>32</v>
@@ -34019,22 +34007,22 @@
         <v>22</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="J466" s="2" t="s">
         <v>28</v>
@@ -34049,7 +34037,7 @@
         <v>30</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>88</v>
+        <v>645</v>
       </c>
       <c r="O466" s="2" t="s">
         <v>31</v>
@@ -34087,22 +34075,22 @@
         <v>22</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>561</v>
+        <v>251</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>562</v>
+        <v>252</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>562</v>
+        <v>252</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>28</v>
@@ -34117,10 +34105,10 @@
         <v>30</v>
       </c>
       <c r="N467" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O467" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P467" s="2" t="s">
         <v>32</v>
@@ -34155,22 +34143,22 @@
         <v>22</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>28</v>
@@ -34185,10 +34173,10 @@
         <v>30</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P468" s="2" t="s">
         <v>32</v>
@@ -34200,7 +34188,7 @@
         <v>32</v>
       </c>
       <c r="S468" s="2" t="s">
-        <v>604</v>
+        <v>32</v>
       </c>
       <c r="T468" s="2" t="s">
         <v>32</v>
@@ -34223,22 +34211,22 @@
         <v>22</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>193</v>
+        <v>649</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>194</v>
+        <v>650</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>194</v>
+        <v>536</v>
       </c>
       <c r="J469" s="2" t="s">
         <v>28</v>
@@ -34253,10 +34241,10 @@
         <v>30</v>
       </c>
       <c r="N469" s="2" t="s">
-        <v>647</v>
+        <v>47</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P469" s="2" t="s">
         <v>32</v>
@@ -34291,22 +34279,22 @@
         <v>22</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="J470" s="2" t="s">
         <v>28</v>
@@ -34321,13 +34309,13 @@
         <v>30</v>
       </c>
       <c r="N470" s="2" t="s">
-        <v>216</v>
+        <v>652</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P470" s="2" t="s">
-        <v>32</v>
+        <v>653</v>
       </c>
       <c r="Q470" s="2" t="s">
         <v>32</v>
@@ -34359,22 +34347,22 @@
         <v>22</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="J471" s="2" t="s">
         <v>28</v>
@@ -34389,10 +34377,10 @@
         <v>30</v>
       </c>
       <c r="N471" s="2" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="P471" s="2" t="s">
         <v>32</v>
@@ -34427,22 +34415,22 @@
         <v>22</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>620</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="J472" s="2" t="s">
         <v>28</v>
@@ -34457,10 +34445,10 @@
         <v>30</v>
       </c>
       <c r="N472" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="P472" s="2" t="s">
         <v>32</v>
@@ -34481,278 +34469,6 @@
         <v>33</v>
       </c>
       <c r="V472" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E473" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F473" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G473" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H473" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I473" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J473" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K473" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L473" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M473" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N473" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="O473" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P473" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q473" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R473" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S473" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T473" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U473" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V473" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E474" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F474" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G474" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="H474" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I474" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J474" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K474" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L474" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M474" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N474" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O474" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P474" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q474" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R474" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S474" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T474" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U474" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V474" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E475" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G475" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H475" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I475" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J475" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K475" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L475" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M475" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N475" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O475" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P475" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q475" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R475" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S475" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T475" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U475" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V475" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E476" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F476" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G476" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H476" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I476" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="J476" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K476" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L476" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M476" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N476" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O476" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P476" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q476" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R476" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S476" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T476" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U476" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V476" s="2" t="s">
         <v>32</v>
       </c>
     </row>
